--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F13a1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F13a1-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>8.972916333333332</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H2">
-        <v>26.918749</v>
+        <v>0.137257</v>
       </c>
       <c r="I2">
-        <v>0.9799598365254921</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="J2">
-        <v>0.9799598365254922</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>205.538081070751</v>
+        <v>0.001065388834</v>
       </c>
       <c r="R2">
-        <v>1849.842729636759</v>
+        <v>0.009588499505999999</v>
       </c>
       <c r="S2">
-        <v>0.9256738492163403</v>
+        <v>0.001317218570037659</v>
       </c>
       <c r="T2">
-        <v>0.9256738492163404</v>
+        <v>0.001317218570037659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>8.972916333333332</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H3">
-        <v>26.918749</v>
+        <v>0.137257</v>
       </c>
       <c r="I3">
-        <v>0.9799598365254921</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="J3">
-        <v>0.9799598365254922</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>1.192674057082444</v>
+        <v>0.00608136964511111</v>
       </c>
       <c r="R3">
-        <v>10.734066513742</v>
+        <v>0.05473232680599999</v>
       </c>
       <c r="S3">
-        <v>0.005371399691621833</v>
+        <v>0.007518844549673292</v>
       </c>
       <c r="T3">
-        <v>0.005371399691621834</v>
+        <v>0.007518844549673291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>8.972916333333332</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H4">
-        <v>26.918749</v>
+        <v>0.137257</v>
       </c>
       <c r="I4">
-        <v>0.9799598365254921</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="J4">
-        <v>0.9799598365254922</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>10.86107216249611</v>
+        <v>0.1072794001657778</v>
       </c>
       <c r="R4">
-        <v>97.749649462465</v>
+        <v>0.9655146014920001</v>
       </c>
       <c r="S4">
-        <v>0.04891458761752991</v>
+        <v>0.1326374123429791</v>
       </c>
       <c r="T4">
-        <v>0.04891458761752991</v>
+        <v>0.132637412342979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.252242</v>
       </c>
       <c r="I5">
-        <v>0.009182708642398771</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="J5">
-        <v>0.009182708642398769</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>1.925993538758001</v>
+        <v>0.001957902404</v>
       </c>
       <c r="R5">
-        <v>17.333941848822</v>
+        <v>0.017621121636</v>
       </c>
       <c r="S5">
-        <v>0.008674022075618307</v>
+        <v>0.002420698736992935</v>
       </c>
       <c r="T5">
-        <v>0.008674022075618305</v>
+        <v>0.002420698736992936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.252242</v>
       </c>
       <c r="I6">
-        <v>0.009182708642398771</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="J6">
-        <v>0.009182708642398769</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
         <v>0.01117594615955556</v>
@@ -818,10 +818,10 @@
         <v>0.100583515436</v>
       </c>
       <c r="S6">
-        <v>5.033267337252838E-05</v>
+        <v>0.01381764417770089</v>
       </c>
       <c r="T6">
-        <v>5.033267337252838E-05</v>
+        <v>0.01381764417770089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.252242</v>
       </c>
       <c r="I7">
-        <v>0.009182708642398771</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="J7">
-        <v>0.009182708642398769</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>0.1017736212188889</v>
+        <v>0.197151114016889</v>
       </c>
       <c r="R7">
-        <v>0.9159625909700001</v>
+        <v>1.774360026152</v>
       </c>
       <c r="S7">
-        <v>0.0004583538934079361</v>
+        <v>0.2437524218379954</v>
       </c>
       <c r="T7">
-        <v>0.0004583538934079359</v>
+        <v>0.2437524218379954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.09941533333333334</v>
+        <v>0.1935656666666667</v>
       </c>
       <c r="H8">
-        <v>0.298246</v>
+        <v>0.580697</v>
       </c>
       <c r="I8">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="J8">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>2.277257034754</v>
+        <v>0.004507370114000001</v>
       </c>
       <c r="R8">
-        <v>20.495313312786</v>
+        <v>0.040566331026</v>
       </c>
       <c r="S8">
-        <v>0.01025599379946582</v>
+        <v>0.005572793168764862</v>
       </c>
       <c r="T8">
-        <v>0.01025599379946582</v>
+        <v>0.005572793168764863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.09941533333333334</v>
+        <v>0.1935656666666667</v>
       </c>
       <c r="H9">
-        <v>0.298246</v>
+        <v>0.580697</v>
       </c>
       <c r="I9">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="J9">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>0.01321421982977778</v>
+        <v>0.02572861936955555</v>
       </c>
       <c r="R9">
-        <v>0.118927978468</v>
+        <v>0.231557574326</v>
       </c>
       <c r="S9">
-        <v>5.951236710247737E-05</v>
+        <v>0.03181018435097395</v>
       </c>
       <c r="T9">
-        <v>5.951236710247737E-05</v>
+        <v>0.03181018435097396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.09941533333333334</v>
+        <v>0.1935656666666667</v>
       </c>
       <c r="H10">
-        <v>0.298246</v>
+        <v>0.580697</v>
       </c>
       <c r="I10">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="J10">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>0.1203351362344445</v>
+        <v>0.453869936236889</v>
       </c>
       <c r="R10">
-        <v>1.08301622611</v>
+        <v>4.084829426132001</v>
       </c>
       <c r="S10">
-        <v>0.0005419486655408032</v>
+        <v>0.5611527822648821</v>
       </c>
       <c r="T10">
-        <v>0.0005419486655408031</v>
+        <v>0.5611527822648821</v>
       </c>
     </row>
   </sheetData>
